--- a/charts/Box_results.xlsx
+++ b/charts/Box_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saxion_cmgt\2nd year\3rd term\Advanced Tools\advanced-tools-collision-eval\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221CF8B8-E0F5-4E4A-BF17-F20A44A47FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE16C9-FCE0-4006-902F-DCD36AB2EB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12CF0B09-D8D5-4B9E-84A7-145218D82B99}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="6">
   <si>
     <t>Shape</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box </t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17634907405376557"/>
-                  <c:y val="-0.62444020893883334"/>
+                  <c:x val="0.13301036708851505"/>
+                  <c:y val="-0.47411981497931599"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -745,402 +748,402 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Box_results!$B$2:$B$65</c:f>
+              <c:f>Box_results!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1500</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3000</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3500</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5000</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6000</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6100</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6200</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6300</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6400</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6500</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6600</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6700</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6800</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6900</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7000</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7100</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7200</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7300</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7400</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7500</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7600</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7700</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7800</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7900</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8000</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8100</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8200</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8300</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8400</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8500</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8600</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8700</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8800</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9000</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9100</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9200</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9300</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9400</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9500</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9600</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9700</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9800</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9900</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10000</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10500</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Box_results!$D$2:$D$65</c:f>
+              <c:f>Box_results!$D$3:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>59.64</c:v>
+                  <c:v>59.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.91</c:v>
+                  <c:v>59.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>59.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>59.89</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.95</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.89</c:v>
+                  <c:v>59.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.87</c:v>
+                  <c:v>59.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.86</c:v>
+                  <c:v>59.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.94</c:v>
+                  <c:v>59.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>58.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>59.82</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.88</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.82</c:v>
+                  <c:v>59.88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.88</c:v>
+                  <c:v>59.84</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.84</c:v>
+                  <c:v>59.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.92</c:v>
+                  <c:v>59.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59.78</c:v>
+                  <c:v>59.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59.33</c:v>
+                  <c:v>59.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59.15</c:v>
+                  <c:v>58.19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.19</c:v>
+                  <c:v>49.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.06</c:v>
+                  <c:v>35.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.92</c:v>
+                  <c:v>35.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.479999999999997</c:v>
+                  <c:v>33.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.950000000000003</c:v>
+                  <c:v>29.13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.13</c:v>
+                  <c:v>30.18</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.18</c:v>
+                  <c:v>25.58</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.58</c:v>
+                  <c:v>27.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.75</c:v>
+                  <c:v>26.18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.18</c:v>
+                  <c:v>25.31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.31</c:v>
+                  <c:v>24.26</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.26</c:v>
+                  <c:v>22.26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.26</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.8</c:v>
+                  <c:v>20.260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.260000000000002</c:v>
+                  <c:v>17.48</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.48</c:v>
+                  <c:v>16.57</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.57</c:v>
+                  <c:v>13.53</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.53</c:v>
+                  <c:v>14.15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.15</c:v>
+                  <c:v>13.43</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.43</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.1</c:v>
+                  <c:v>11.06</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.06</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>9.01</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.01</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.35</c:v>
+                  <c:v>5.36</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.36</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.24</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.95</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.3</c:v>
+                  <c:v>3.27</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.27</c:v>
+                  <c:v>3.18</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.18</c:v>
+                  <c:v>3.12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.12</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.56</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.26</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>3.17</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>3.13</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.17</c:v>
-                </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.13</c:v>
+                  <c:v>3.19</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.19</c:v>
+                  <c:v>3.11</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.11</c:v>
+                  <c:v>3.12</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.12</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.08</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A84AAD-FD64-4A03-A54F-1FD32D41A7D8}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,6 +3286,20 @@
         <v>3.08</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>30000</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>3.07</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
     <sortCondition ref="B1:B65"/>
